--- a/er_verb.xlsx
+++ b/er_verb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\docker_safe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD5DA61-8FB0-4A4A-A9C5-F18AEE13D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D6BBE4-AB5E-4378-8580-97BCA329FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A205062-A53D-4423-BC69-D0DDFC6A9CED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1A205062-A53D-4423-BC69-D0DDFC6A9CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -518,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA08984-1858-4C4C-8673-A5C599D0B655}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
